--- a/biology/Histoire de la zoologie et de la botanique/Gilbert_White/Gilbert_White.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gilbert_White/Gilbert_White.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilbert White (18 juillet 1720, Selborne dans le Hampshire - 26 juin 1793, Selborne) est un naturaliste et un ornithologue britannique considéré comme un pionnier de l'écologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une première éducation par des précepteurs à Basingstoke, il part à l'Oriel College d'Oxford. White obtient un titre de diacre en 1747 et devient vicaire de Moreton Pinkney dans le Northamptonshire. Il a la charge de l'église de Farringdon dans le Hampshire, une paroisse proche de Selborne. Il a abondamment décrit la forêt voisine d’Alice Holt. En 1784, il est en poste à Selborne, où il demeure jusqu'à sa mort.
 White est considéré au Royaume-Uni comme le premier écologiste. Il dit des vers de terre (1770) :
